--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,27 +458,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tanya Gomerman - Gomerman Bourn &amp; Associates</t>
+          <t>Murray Sharma &amp; Associates</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>825 Van Ness Ave, Ste 502, San Francisco, CA 94109</t>
+          <t>5 Rata St, New Lynn, Auckland 0600, New Zealand</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(415) 545-8608</t>
+          <t>+64 9 827 6872</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RMD Law</t>
+          <t>Allan Chartered Accounting</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -486,39 +486,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6315 Montgomery St, Fl 10, San Francisco, CA 94104</t>
+          <t>51 Fitzwilliam Drive, Torbay, Auckland 0630, New Zealand</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(415) 480-7857</t>
+          <t>+64 9 418 2537</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Geller Law</t>
+          <t>Global Forex NZ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>201 Spear St, Ste 1199, San Francisco, CA 94105</t>
+          <t>1/26 Kilham Avenue, Northcote, Auckland 0627, New Zealand</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(415) 234-4906</t>
+          <t>+64 9 419 6769</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Adam Gurley Law Offices</t>
+          <t>Metro Recruitment</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -526,79 +526,79 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3739 Balboa St, Ste 114, San Francisco, CA 94121</t>
+          <t>Level 3, Suite 4, Site 3, 30 St Benedicts Street, Newton, Auckland 1010, New Zealand</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(415) 240-9953</t>
+          <t>+64 9 303 3727</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Michael Blacksburg - Estate Planning</t>
+          <t>Mont Blanc Bontique</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>San Francisco, CA 94114</t>
+          <t>45 Queen St, Auckland 1010, New Zealand</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(415) 508-5600</t>
+          <t>+64 9 309 5074</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Steven Adair MacDonald &amp; Partners</t>
+          <t>Accountsplus</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>870 Market St, Ste 500, San Francisco, CA 94102</t>
+          <t>3 Lovell Mews 400 Rosedale Rd, Auckland 0632, New Zealand</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(415) 704-6744</t>
+          <t>+64 9 415 3613</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bend Law Group</t>
+          <t>Westpac - St Lukes</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2181 Greenwich St, San Francisco, CA 94123</t>
+          <t>80 St Lukes Road, Mount Albert, Auckland 1025, New Zealand</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(415) 633-6841</t>
+          <t>+64 800 400 600</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>San Francisco Workers' Compensation Lawyer</t>
+          <t>BNZ St Helier's</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,99 +606,91 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5214F Diamond Hts Blvd, Ste 660, San Francisco, CA 94131</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>(415) 942-6993</t>
-        </is>
-      </c>
+          <t>15 Polygon Rd, Auckland 1071, New Zealand</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Divorce with Dignity - San Francisco</t>
+          <t>ANZ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Flood Building 870 Market St, Ste 1164, San Francisco, CA 94102</t>
+          <t>Level 1, 3062 Great North Road, New Lynn, Auckland 0600, New Zealand</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(415) 963-3535</t>
+          <t>+64 9 525 2509</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Silveira Law</t>
+          <t>Accounting &amp; Business Consulting</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>315 Montgomery St, Ste 917, San Francisco, CA 94104</t>
+          <t>185 Great South Rd, Papatoetoe 2025, New Zealand</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(628) 946-2233</t>
+          <t>+64 9 279 1234</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Omega Law Group, PC</t>
+          <t>Khan &amp; Associates</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1434 Market St, San Francisco, CA 94102</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>(415) 843-8936</t>
-        </is>
-      </c>
+          <t>131 Kolmar Rd, Papatoetoe 2025, New Zealand</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hooshmand Law Group</t>
+          <t>Penny Genius</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22 Battery St, Ste 610, San Francisco, CA 94111</t>
+          <t>1275 Dominion Rd, Mount Roskill, Auckland 0626, New Zealand</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(415) 423-3400</t>
+          <t>+64 22 077 5510</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jessica L Chylik, Attorney at Law</t>
+          <t>Westpac Glenfield</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -706,752 +698,152 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2358 Market St, Fl 3, San Francisco, CA 94114</t>
+          <t>Level 3, 40 Downing Street, Glenfield, Auckland 0629, New Zealand</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(415) 938-6552</t>
+          <t>+64 9 440 5560</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Ladva Law Firm</t>
+          <t>Airey Consultants</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>530 Jackson St, Fl 2, San Francisco, CA 94133</t>
+          <t>12-14 Northcroft St, North Shore City 0622, New Zealand</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(415) 296-8844</t>
+          <t>+64 9 486 4542</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Law Offices of Jonah Chew</t>
+          <t>Zintel Communications</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1388 Sutter St, Ste 805, San Francisco, CA 94109</t>
+          <t>Level 2, 9 Wilkins Street, Ponsonby, Auckland 1142, New Zealand</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(415) 484-1718</t>
+          <t>+64 800 946 835</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Law Office of Andrew S Cantor</t>
+          <t>Dynamic Web Solutions</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4132 3rd St, Ste 7, San Francisco, CA 94124</t>
+          <t>2-336 St Heliers Bay Rd, Auckland 1071, New Zealand</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(415) 500-5849</t>
+          <t>+64 9 578 0578</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Richard S Kolomejec</t>
+          <t>Kiwi Bank</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>48 Gold Street, Ste 100, San Francisco, CA 94133</t>
+          <t>416 Broadway, Auckland 1023, New Zealand</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(415) 433-7205</t>
+          <t>+64 800 113 355</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leiva Law Firm</t>
+          <t>Westpac Botany Junction</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>350 Townsend St, San Francisco, CA 94107</t>
+          <t>277 Te-Irirangi Dr, Auckland 2016, New Zealand</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(415) 541-9290</t>
+          <t>+64 9 271 7440</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Trevor Caudle Law Practice</t>
+          <t>Hanne Dr Tony</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>350 Bay St, Ste 100-363, San Francisco, CA 94133</t>
+          <t>215 Bleakhouse Rd, Howick 2014, New Zealand</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(415) 859-9626</t>
+          <t>+64 9 534 8914</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>The Law Offices of Jason Louie</t>
+          <t>Cash Converters</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>490 Post St, Ste 910, San Francisco, CA 94102</t>
+          <t>121 Great South Rd, Manukau 2025, New Zealand</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(415) 240-4646</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Hsiang Law Group</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>27 Maiden Ln, Ste 600, San Francisco, CA 94108</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>(415) 741-1123</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Anna Dubrovsky Law Group</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>601 Montgomery St, Ste 2015, San Francisco, CA 94111</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>(415) 746-1477</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Drake Law Firm</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1 Embarcadero Ctr, San Francisco, CA 94111</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>(844) 513-7253</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Evans Law Firm, Inc</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3053 Fillmore St, Ste 236, San Francisco, CA 94123</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>(415) 441-8669</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Romanovska Law</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3223 Webster St, San Fransisco, CA 94123</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>(415) 347-0584</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Parks Law Group</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>140 Geary St, Fl 7, San Francisco, CA 94108</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>(925) 362-0102</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Law Offices Of Jeremy Pasternak</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>354 Pine St, Fl 5, San Francisco, CA 94104</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>(415) 693-0300</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mission Doc Prep - Notary &amp; Mobile Apostille</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2492 Mission St, San Francisco, CA 94110</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>(415) 206-1697</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Rebecca Feigelson Law</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>345 Franklin St, San Francisco, CA 94102</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>(415) 562-5541</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Danfoura Law Group</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1303 9th Ave, San Francisco, CA 94122</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>(415) 970-8012</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Beahm Law</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>877 Bryant St, Ste 300, San Francisco, CA 94103</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>(415) 493-8677</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Alex Lemberg, Esq.</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>5</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4111 18th St, Ste 5, San Francisco, CA 94114</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>(415) 921-9300</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Law Office of George R Bravo</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>44 Montgomery St, San Francisco, CA 94104</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>(415) 823-2548</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Hassell Law Group</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4079 19th Ave, San Francisco, CA 94132</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>(415) 334-4111</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Law Office of Nikolaus W Reed</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Pier 40, Ste 7, San Francisco, CA 94107</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>(415) 940-7766</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Scott Okamoto</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1832 Buchanan St, Ste 202, San Francisco, CA 94115</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>(415) 766-5871</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Da Vega, Fisher &amp; Mechtenberg LLP</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>5</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1630 Taraval St, Ste B, San Francisco, CA 94116</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>(415) 735-5495</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ridless Law Office</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>5</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>500 Washington St, Ste 700, San Francisco, CA 94111</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>(415) 614-2600</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Sally Morin Personal Injury Lawyers</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>5</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1857 Market St, Fl 3, San Francisco, CA 94103</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>(415) 413-0033</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Nightingale Legal</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1653 Irving St, San Francisco, CA 94122</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>(415) 564-4900</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>The Cartwright Law Firm</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>222 Front St, 5th Fl, San Francisco, CA 94111</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>(415) 433-0444</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Andrei Romanenko</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>5</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>500 Sutter St, Ste 823, San Francisco, CA 94102</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>(415) 997-8144</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mary Gemma O'Keeffe</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1514 Taraval St, San Francisco, CA 94116</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>(415) 664-6788</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Cary Schneider, Esq</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>315 Montgomery St, Ste 1025, San Francisco, CA 94104</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>(415) 781-6500</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Law Office of Svetlana Shirinova</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>870 Market St, Ste 948, San Francisco, CA 94102</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>(415) 947-0703</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Walkup Melodia Kelly &amp; Schoenberger</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>650 California St, Fl 26, San Francisco, CA 94108</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>(415) 889-2919</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Minnis &amp; Smallets</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>5</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>57 Post St, Ste 801, San Francisco, CA 94104</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>(415) 551-0885</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Button Law Inc. </t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>5</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1052 Filbert St, San Francisco, CA 94133</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>(650) 703-6038</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>KPB Immigration Law Firm</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>142 Sansome St, Ste 500, San Francisco, CA 94104</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>(415) 900-4405</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Shen Law Firm</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>3</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2037 Irving St, Ste 206, San Francisco, CA 94122</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>(415) 661-6700</t>
+          <t>+64 9 278 5746</t>
         </is>
       </c>
     </row>
